--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -46,13 +46,13 @@
     <t xml:space="preserve">Lockpicking Tools</t>
   </si>
   <si>
-    <t xml:space="preserve">Whilst a wizard often relies on magical means to get past locks, however, powerful and intricate magics often require additional help. Locking tools can help you investigate both mundane and magical locks, and a proficiency with them enables you to add your Dexterity proficiency to any checks. </t>
+    <t xml:space="preserve">Whilst a wizard often relies on magical means to get past locks, powerful and intricate magics often require additional help. Locking tools can help you investigate both mundane and magical locks, and a proficiency with them enables you to add your Dexterity proficiency to any checks. </t>
   </si>
   <si>
     <t xml:space="preserve">Runic Tools</t>
   </si>
   <si>
-    <t xml:space="preserve">Runic tools allow you to engrave intricate runes on a surface with exquisite accuracy. They are therefore invaluable to powerful Enchanting and Rune-placing endavours. Proficiciency in these skills grants you check-advantage in all Enchanting and Rune-binding checks.</t>
+    <t xml:space="preserve">Runic tools allow you to engrave intricate runes on a surface with exquisite accuracy. They are therefore invaluable to powerful Enchanting and Rune-placing endeavours. Proficiency in these skills grants you check-advantage in all Enchanting and Rune-binding checks.</t>
   </si>
   <si>
     <t xml:space="preserve">Potion Equipment</t>
@@ -142,6 +142,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,12 +213,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -230,15 +231,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t xml:space="preserve">Merely possessing a musical instrument allows you to make crude noises, but proficiency in an individual instrument allows you to work wonders with it. Each subsequent instrument requires a new proficiency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climbers Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required for scaling up vertical faces, or absailing down them. You move at one-quarter your base speed, unless you have proficiency in this tool, in which case you move at half-speed.</t>
   </si>
 </sst>
 </file>
@@ -228,10 +234,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -450,6 +456,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -133,7 +133,13 @@
     <t xml:space="preserve">Climbers Kit</t>
   </si>
   <si>
-    <t xml:space="preserve">Required for scaling up vertical faces, or absailing down them. You move at one-quarter your base speed, unless you have proficiency in this tool, in which case you move at half-speed.</t>
+    <t xml:space="preserve">Required for scaling up vertical faces, or abseiling down them. You move at one-quarter your base speed, unless you have proficiency in this tool, in which case you move at half-speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeweller\apos{}s Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of tools used to determine the authenticity and nature of mundane and magical objects, a Jeweller\apos{}s set bears a visual similarity to the muggle tools from which they get their name – an eyeglass and some simple alchemical equipment. Proficiency allows you to add your Arcane bonus to checks.</t>
   </si>
 </sst>
 </file>
@@ -234,13 +240,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.55"/>
@@ -468,6 +474,20 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B53FCCC-3FD1-4742-999D-6660C20D6CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41284DFA-7DAE-4F0C-A5F1-8A776CF8895E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -129,9 +137,6 @@
     <t xml:space="preserve">A requirement for long-distance navigation. Allows you to chart a course for a on-foot travel, broomstick flight, ship\apos{}s course for journeys greater than 5 hour. Proficiency in these tools allows you to add 1 hour for every point of your Expertise bonus. </t>
   </si>
   <si>
-    <t xml:space="preserve">A set of tools for performing minor repairs to armour and clothing. Proficiency allows you to halve the time required to repair a set to full strength. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Merely possessing a musical instrument allows you to make crude noises, but you require proficiency to truly play an instrument, and you may add your Expertise bonus to all checks relating to the instrument. Each subsequent instrument requires a new proficiency. </t>
   </si>
   <si>
@@ -139,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">A set of tools used to determine the authenticity and nature of mundane and magical objects, a Jeweller\apos{}s set bears a visual similarity to the muggle tools from which they get their name – an eyeglass and some simple alchemical equipment. Proficiency allows you to add your Expertise bonus to all checks used to determine the authenticity of an item. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of tools for performing minor repairs to armour and clothing. Proficiency allows you to halve the time required to repair a set to full strength, and allows you to repair {\\it Destroyed} armour. </t>
   </si>
 </sst>
 </file>
@@ -494,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -683,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -697,7 +705,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -711,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
@@ -725,7 +733,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41284DFA-7DAE-4F0C-A5F1-8A776CF8895E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146DCD5-963B-4088-853C-92273C3F25CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Surgeon\apos{}s Tools</t>
-  </si>
-  <si>
     <t>Light</t>
   </si>
   <si>
@@ -107,12 +104,6 @@
     <t>Alchemy Gear</t>
   </si>
   <si>
-    <t xml:space="preserve">A must-have for the budding alchemist, potion equipment typically consists of a cauldron, an alembic, a distillation setup, and a titration column. Proficiency in this set of equipment allows you to add your Expertise bonus to potion making attempts. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of surgeon\apos{}s tools allows you to perform delicate medical procedures, when simple healing spells do not do the trick. Proficiency with these tools allows you to add your Expertise bonus to non-magical healing checks.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Whilst a wizard often relies on magical means to get past locks, powerful and intricate magics often require additional help. Wizard\apos{}s lockpicks are not just sticks of iron, but are often interwoven with powerful enchantments to ease to process. Proficiency with them enables you to add your Expertise bonus to lockpicking checks. </t>
   </si>
   <si>
@@ -147,6 +138,45 @@
   </si>
   <si>
     <t xml:space="preserve">A set of tools for performing minor repairs to armour and clothing. Proficiency allows you to halve the time required to repair a set to full strength, and allows you to repair {\\it Destroyed} armour. </t>
+  </si>
+  <si>
+    <t>Knuts</t>
+  </si>
+  <si>
+    <t>BaseKnuts</t>
+  </si>
+  <si>
+    <t>Galleons</t>
+  </si>
+  <si>
+    <t>Sickles</t>
+  </si>
+  <si>
+    <t>RoundSickles</t>
+  </si>
+  <si>
+    <t>RoundKnuts</t>
+  </si>
+  <si>
+    <t>StringGalleon</t>
+  </si>
+  <si>
+    <t>StringSickle</t>
+  </si>
+  <si>
+    <t>StringKnut</t>
+  </si>
+  <si>
+    <t>GPBCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A must-have for the budding alchemist, potion equipment typically consists of a collapsable cauldron, an alembic, a distillation setup, and a titration column. Proficiency in this set of equipment allows you to add your Expertise bonus to potion making attempts. </t>
+  </si>
+  <si>
+    <t>First Aid Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A first aid kit allows you to perform medical procedures, when in a pinch. Used without proficiency and passing a DV15 Intelligence check allows you to Stabilise a dying individual. With proficiency, can heal 1d4 damage. </t>
   </si>
 </sst>
 </file>
@@ -500,19 +530,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,215 +556,949 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="str">
+        <f>CONCATENATE(M2,N2,O2)</f>
+        <v>\sickle{13}~\knut{15}</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <f>E2*493/50</f>
+        <v>394.4</v>
+      </c>
+      <c r="G2">
+        <f>FLOOR(F2/493,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>FLOOR((F2-493*G2)/29,1)</f>
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <f>FLOOR((F2-493*G2-29*H2),1)</f>
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <f>IF(G2&gt;0,ROUND(H2/5,0)*5,H2)</f>
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <f>IF(J2&gt;0,ROUND(I2/5,0)*5,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(G2&gt;0,CONCATENATE("\galleon{",G2,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(J2&gt;0,CONCATENATE("\sickle{",J2,"}~"),"")</f>
+        <v>\sickle{13}~</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(K2&gt;0,CONCATENATE("\knut{",K2,"}"),"")</f>
+        <v>\knut{15}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C16" si="0">CONCATENATE(M3,N3,O3)</f>
+        <v>\sickle{6}~\knut{25}</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="1">E3*493/50</f>
+        <v>197.2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="2">FLOOR(F3/493,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H16" si="3">FLOOR((F3-493*G3)/29,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I16" si="4">FLOOR((F3-493*G3-29*H3),1)</f>
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <f>IF(G3&gt;0,ROUND(H3/5,0)*5,H3)</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K16" si="5">IF(J3&gt;0,ROUND(I3/5,0)*5,0)</f>
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M16" si="6">IF(G3&gt;0,CONCATENATE("\galleon{",G3,"}~"),"")</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N16" si="7">IF(J3&gt;0,CONCATENATE("\sickle{",J3,"}~"),"")</f>
+        <v>\sickle{6}~</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O16" si="8">IF(K3&gt;0,CONCATENATE("\knut{",K3,"}"),"")</f>
+        <v>\knut{25}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>542.29999999999995</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <f>IF(G4&gt;0,ROUND(H4/5,0)*5,H4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="6"/>
+        <v>\galleon{1}~</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{11}~\knut{25}</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>345.1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <f>IF(G5&gt;0,ROUND(H5/5,0)*5,H5)</f>
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="M5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{11}~</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{25}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{3}~\knut{10}</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <f>IF(G6&gt;0,ROUND(H6/5,0)*5,H6)</f>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{3}~</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{7}~\knut{15}</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>216.92</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <f>IF(G7&gt;0,ROUND(H7/5,0)*5,H7)</f>
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{7}~</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{15}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{3}~\knut{10}</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <f>IF(G8&gt;0,ROUND(H8/5,0)*5,H8)</f>
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{3}~</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{2}~\knut{20}</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>78.88</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <f>IF(G9&gt;0,ROUND(H9/5,0)*5,H9)</f>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{2}~</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{20}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{3}~\knut{10}</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <f>IF(G10&gt;0,ROUND(H10/5,0)*5,H10)</f>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{3}~</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>118.32</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f>IF(G11&gt;0,ROUND(H11/5,0)*5,H11)</f>
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{4}~</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{3}~\knut{10}</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>98.6</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <f>IF(G12&gt;0,ROUND(H12/5,0)*5,H12)</f>
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{3}~</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{10}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>147.9</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f>IF(G13&gt;0,ROUND(H13/5,0)*5,H13)</f>
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{5}~</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>986</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>IF(G14&gt;0,ROUND(H14/5,0)*5,H14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>\galleon{2}~</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{8}~\knut{15}</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>246.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <f>IF(G15&gt;0,ROUND(H15/5,0)*5,H15)</f>
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{8}~</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{15}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>\sickle{11}~\knut{25}</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>345.1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="J16">
+        <f>IF(G16&gt;0,ROUND(H16/5,0)*5,H16)</f>
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="7"/>
+        <v>\sickle{11}~</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="8"/>
+        <v>\knut{25}</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M17" t="str">
+        <f t="shared" ref="M3:M24" si="9">IF(G17&gt;0,CONCATENATE(G17,"\galleon{}~"),"")</f>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" ref="N3:N24" si="10">IF(J17&gt;0,CONCATENATE(H17,"\sickle{}~"),"")</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" ref="O3:O22" si="11">IF(K17&gt;0,CONCATENATE(K17,"\knut{}"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M23" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -163,7 +163,7 @@
     <t xml:space="preserve">Jeweller\apos{}s Tools</t>
   </si>
   <si>
-    <t xml:space="preserve">A set of tools used to determine the authenticity and nature of mundane and magical objects, a Jeweller\apos{}s set bears a visual similarity to the muggle tools from which they get their name – an eyeglass and some simple alchemical equipment. Proficiency allows you to add your Expertise bonus to all checks used to determine the authenticity of an item. </t>
+    <t xml:space="preserve">A set of tools used to determine the authenticity and nature of mundane and enchanted objects, a Jeweller\apos{}s set bears a visual similarity to the muggle tools from which they get their name – an eyeglass and some simple alchemical equipment. Proficiency allows you to add your Expertise bonus to all checks used to investigate the nature of an item. </t>
   </si>
   <si>
     <t xml:space="preserve">Broomstick</t>
@@ -277,14 +277,16 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$16</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -34,6 +37,102 @@
     <t xml:space="preserve">Purpose</t>
   </si>
   <si>
+    <t xml:space="preserve">Climbing Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitons, rope, crampons, climbing axes and belaying devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When scaling up and down vertical faces of ice and rock, you need these supplies in order to ensure that you do not plummet to your death. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clothesmaking Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needle and thread, patches of material of all different kinds. Buttons, clasps and other fixtures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A requirement for repairing damaged clothing, or for creating your own. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pots and pans, a magical heat source and an extension-charmed pouch containing all manner of herbs, spices and seasonings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A neat little kit useful for cooking up a delicious meal, even when out in the wild. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detective’s Toolkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evidence bags, fingerprint powder (both magical and normal), magnifying glass, and other such devices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immensely useful when it comes to investigating a crime scene and surveying it for clues. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Aid Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandages, painkillers, antiseptics wipes, as well as emergency doses of some powerful potions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When someone has slipped into the \imp{Critical Condition} status, providing emergency first aid is often necessary to stop them slipping into a coma, or worse, death. This kit also has bandages and painkillers useful for dealing with less life-threatening scenarios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbology Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruning shears, sample collection pots and vials, seeds, and soil fertiliser. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the equipment necessary to care for and plant mundane and magical plants, as well as carefully harvest samples from the more dangerous varieties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masonry Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chisel, large hammer, trowel, brushes, as well as a small amount of dry cement mixture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether you need to build a wall, or rip one down, this set of tools can help you. Also can be used for carving statues, or tunneling through solid rock – though it might take a while. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of maps, a compass, dowsing rod, a minature sextant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When out in the wild, it is necessary to know exactly where you are and where you are going – without a set of Navigation tools, you are very liable to get lost. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brushes, paints (oil, watercolour, even spray-paints), dyes, paper and a palette.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether it be graffiting rude messages on the walls, or composing a beautiful landscape, you need painting supplies before you can get started. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Potion Making Set</t>
   </si>
   <si>
@@ -55,18 +154,6 @@
     <t xml:space="preserve">A set of equipment used to inscribe even microscopic runic symbols into the surface of an object, and then channel magicl energy – thus \imp{enchanting} the object. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooking Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pots and pans, a magical heat source and an extension-charmed pouch containing all manner of herbs, spices and seasonings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A neat little kit useful for cooking up a delicious meal, even when out in the wild. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smithing Tools</t>
   </si>
   <si>
@@ -76,6 +163,18 @@
     <t xml:space="preserve">A prerequisite for manipulating, shaping and forming raw metal into a new shape. You may need to find a proper forge to create larger objects, but even in the wilderness you can use these tools to do some preliminary repairs. </t>
   </si>
   <si>
+    <t xml:space="preserve">Thieving Toolkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some lightly enchanted lockpicks, a small mirror, tweezers, some runestones and a bag of sand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst a wizard often relies on magical means to get past locks and traps, powerful and intricate magics often require additional help. Wizard\apos{}s lockpicks are not just sticks of iron, but are often interwoven with powerful enchantments to ease to process and the set includes various arcane (runestones) and mundane (mirrors) tools which may alert you to the presence of proective countermeasures. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tinkering Tools</t>
   </si>
   <si>
@@ -92,90 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">Everything you might need to construct something out of wood, or to repair or dismantle the same. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masonry Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chisel, large hammer, trowel, brushes, as well as a small amount of dry cement mixture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether you need to build a wall, or rip one down, this set of tools can help you. Also can be used for carving statues, or tunneling through solid rock – though it might take a while. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clothesmaking Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needle and thread, patches of material of all different kinds. Buttons, clasps and other fixtures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A requirement for repairing damaged clothing, or for creating your own. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thieving Toolkit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some lightly enchanted lockpicks, a small mirror, tweezers, some runestones and a bag of sand. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whilst a wizard often relies on magical means to get past locks and traps, powerful and intricate magics often require additional help. Wizard\apos{}s lockpicks are not just sticks of iron, but are often interwoven with powerful enchantments to ease to process and the set includes various arcane (runestones) and mundane (mirrors) tools which may alert you to the presence of proective countermeasures. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A set of maps, a compass, dowsing rod, a minature sextant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When out in the wild, it is necessary to know exactly where you are and where you are going – without a set of Navigation tools, you are very liable to get lost. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbology Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruning shears, sample collection pots and vials, seeds, and soil fertiliser. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All the equipment necessary to care for and plant mundane and magical plants, as well as carefully harvest samples from the more dangerous varieties.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting Supplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brushes, paints (oil, watercolour, even spray-paints), dyes, paper and a palette.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether it be graffiting rude messages on the walls, or composing a beautiful landscape, you need painting supplies before you can get started. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Aid Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bandages, painkillers, antiseptics wipes, as well as emergency doses of some powerful potions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When someone has slipped into the \imp{Critical Condition} status, providing emergency first aid is often necessary to stop them slipping into a coma, or worse, death. This kit also has bandages and painkillers useful for dealing with less life-threatening scenarios. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climbing Supplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitons, rope, crampons, climbing axes and belaying devices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When scaling up and down vertical faces of ice and rock, you need these supplies in order to ensure that you do not plummet to your death. </t>
   </si>
 </sst>
 </file>
@@ -190,6 +205,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -211,6 +227,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,15 +305,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,7 +343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -336,26 +357,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -364,161 +385,176 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D16"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -526,5 +562,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -85,13 +85,13 @@
     <t xml:space="preserve">First Aid Kit</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicine</t>
+    <t xml:space="preserve">First Aid</t>
   </si>
   <si>
     <t xml:space="preserve">Bandages, painkillers, antiseptics wipes, as well as emergency doses of some powerful potions. </t>
   </si>
   <si>
-    <t xml:space="preserve">When someone has slipped into the \imp{Critical Condition} status, providing emergency first aid is often necessary to stop them slipping into a coma, or worse, death. This kit also has bandages and painkillers useful for dealing with less life-threatening scenarios. </t>
+    <t xml:space="preserve">This kit also has bandages and painkillers useful for dealing with less life-threatening scenarios, when coupled with the \imp{Emergency Care} ability, this can be used to remove the \imp{Critical Condition} status. </t>
   </si>
   <si>
     <t xml:space="preserve">Herbology Tools</t>
@@ -317,7 +317,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,7 +399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>

--- a/CoreRulebook/Data/Items/tools.xlsx
+++ b/CoreRulebook/Data/Items/tools.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Bandages, painkillers, antiseptics wipes, as well as emergency doses of some powerful potions. </t>
   </si>
   <si>
-    <t xml:space="preserve">This kit also has bandages and painkillers useful for dealing with less life-threatening scenarios, when coupled with the \imp{Emergency Care} ability, this can be used to remove the \imp{Critical Condition} status. </t>
+    <t xml:space="preserve">This kit can be used to patch up small wounds. By expending this kit during a \imp{Short Rest}, you can either allow a being to heal an amout equal to a DV 7 \imp{First Aid} roll, or remove the \imp{Critical Condition} status, placing them in \imp{Critical But Stable}.</t>
   </si>
   <si>
     <t xml:space="preserve">Herbology Tools</t>
@@ -317,7 +317,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,7 +399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
